--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện CPU.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện CPU.xlsx
@@ -63,15 +63,6 @@
     <t>Intel Core i7-4960X</t>
   </si>
   <si>
-    <t>Intel Core i7-4930K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2700K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2600K </t>
-  </si>
-  <si>
     <t>AMD Athlon 64 X2 5200+</t>
   </si>
   <si>
@@ -147,16 +138,25 @@
     <t>Intel Core i7-3970X Extreme Edition</t>
   </si>
   <si>
-    <t>abcccccc</t>
-  </si>
-  <si>
-    <t>derfdgfdgdfgd</t>
-  </si>
-  <si>
-    <t>gfsgfdsgfdsgdfsgfdsgs</t>
-  </si>
-  <si>
-    <t>dàgagdagsdgadsa</t>
+    <t xml:space="preserve">Intel Core i7-2601K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2701K </t>
+  </si>
+  <si>
+    <t>Intel Core i7-4830K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2622K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2623K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2624h </t>
+  </si>
+  <si>
+    <t>Intel Core i7-2647C</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>7</v>
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6">
         <v>8</v>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>9</v>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6">
         <v>11</v>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>12</v>
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>14</v>
@@ -845,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6">
         <v>15</v>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6">
         <v>16</v>
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6">
         <v>17</v>
@@ -887,7 +887,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
         <v>18</v>
@@ -901,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6">
         <v>19</v>
@@ -915,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6">
         <v>21</v>
@@ -943,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6">
         <v>22</v>
@@ -957,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6">
         <v>23</v>
@@ -971,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6">
         <v>24</v>
@@ -985,7 +985,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6">
         <v>25</v>
@@ -999,7 +999,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6">
         <v>26</v>
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6">
         <v>27</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6">
         <v>28</v>
@@ -1041,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C29" s="6">
         <v>29</v>
@@ -1055,7 +1055,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="6">
         <v>30</v>
@@ -1069,7 +1069,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6">
         <v>31</v>
@@ -1083,7 +1083,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6">
         <v>32</v>
@@ -1097,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C33" s="13">
         <v>32</v>
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện CPU.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện CPU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>Intel Core i7-2647C</t>
+  </si>
+  <si>
+    <t>AMD Radeon R9 290</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 780</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 660 Ti</t>
+  </si>
+  <si>
+    <t>2 GB DDR3</t>
+  </si>
+  <si>
+    <t>500GB 5400rpm Hard Drive</t>
   </si>
 </sst>
 </file>
@@ -612,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1178,76 @@
       </c>
       <c r="D37" s="13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="13">
+        <v>40</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="13">
+        <v>30</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="13">
+        <v>32</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện CPU.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện CPU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Danh sách thành phần cấu hình và trọng số</t>
   </si>
   <si>
-    <t>Intel Core i7-4960X</t>
-  </si>
-  <si>
     <t>AMD Athlon 64 X2 5200+</t>
   </si>
   <si>
@@ -96,85 +93,85 @@
     <t>AMD A10-4600M</t>
   </si>
   <si>
-    <t>Intel Core 2 Duo E7500</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Duo E8400</t>
-  </si>
-  <si>
-    <t>AMD Athlon II X3 450</t>
-  </si>
-  <si>
-    <t>AMD Athlon II X3 455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i5-3317U </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i5-2410M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i3-3217U </t>
-  </si>
-  <si>
-    <t>AMD Athlon II X4 640</t>
-  </si>
-  <si>
-    <t>Intel Pentium G2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i3-540 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i5-3210M </t>
-  </si>
-  <si>
-    <t>Intel Pentium G3220</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Quad Q6700</t>
-  </si>
-  <si>
     <t>Intel Core i7-3970X Extreme Edition</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel Core i7-2601K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2701K </t>
-  </si>
-  <si>
-    <t>Intel Core i7-4830K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2622K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2623K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2624h </t>
-  </si>
-  <si>
-    <t>Intel Core i7-2647C</t>
-  </si>
-  <si>
-    <t>AMD Radeon R9 290</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>NVIDIA GeForce GTX 780</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 660 Ti</t>
-  </si>
-  <si>
-    <t>2 GB DDR3</t>
-  </si>
-  <si>
     <t>500GB 5400rpm Hard Drive</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4960X1</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Duo E7501</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Duo E8401</t>
+  </si>
+  <si>
+    <t>AMD Athlon II X3 451</t>
+  </si>
+  <si>
+    <t>Intel Core i5-33171</t>
+  </si>
+  <si>
+    <t>Intel Core i3-32171</t>
+  </si>
+  <si>
+    <t>AMD Athlon II X4 641</t>
+  </si>
+  <si>
+    <t>Intel Pentium G2031</t>
+  </si>
+  <si>
+    <t>Intel Core i3-541</t>
+  </si>
+  <si>
+    <t>Intel Core i5-32101</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Quad Q6701</t>
+  </si>
+  <si>
+    <t>Intel Core i7-26222</t>
+  </si>
+  <si>
+    <t>Intel Core i7-26232</t>
+  </si>
+  <si>
+    <t>Intel Core i7-26242</t>
+  </si>
+  <si>
+    <t>Intel Core i7-26472</t>
+  </si>
+  <si>
+    <t>AMD Radeon R9 291</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 781</t>
+  </si>
+  <si>
+    <t>2 GB DDR1</t>
+  </si>
+  <si>
+    <t>Intel Core i7-48303</t>
+  </si>
+  <si>
+    <t>Intel Core i7-27013</t>
+  </si>
+  <si>
+    <t>Intel Core i7-26013</t>
+  </si>
+  <si>
+    <t>Intel Pentium G3223</t>
+  </si>
+  <si>
+    <t>Intel Core i5-24103</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 660 T3</t>
   </si>
 </sst>
 </file>
@@ -632,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12">
         <v>3</v>
@@ -731,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -751,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>7</v>
@@ -765,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>8</v>
@@ -779,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>9</v>
@@ -793,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
@@ -807,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
         <v>11</v>
@@ -821,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>12</v>
@@ -835,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>13</v>
@@ -849,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6">
         <v>14</v>
@@ -863,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
         <v>15</v>
@@ -877,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6">
         <v>16</v>
@@ -891,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6">
         <v>17</v>
@@ -905,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6">
         <v>18</v>
@@ -919,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6">
         <v>19</v>
@@ -933,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
@@ -947,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6">
         <v>21</v>
@@ -961,7 +958,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6">
         <v>22</v>
@@ -975,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6">
         <v>23</v>
@@ -989,7 +986,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6">
         <v>24</v>
@@ -1003,7 +1000,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="6">
         <v>25</v>
@@ -1017,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6">
         <v>26</v>
@@ -1031,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6">
         <v>27</v>
@@ -1045,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6">
         <v>28</v>
@@ -1073,7 +1070,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6">
         <v>30</v>
@@ -1087,7 +1084,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6">
         <v>31</v>
@@ -1101,7 +1098,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6">
         <v>32</v>
@@ -1115,7 +1112,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C33" s="13">
         <v>32</v>
@@ -1129,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13">
         <v>33</v>
@@ -1143,7 +1140,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C35" s="13">
         <v>34</v>
@@ -1157,7 +1154,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" s="13">
         <v>35</v>
@@ -1171,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="13">
         <v>36</v>
@@ -1185,13 +1182,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="13">
         <v>40</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1196,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C39" s="13">
         <v>30</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1210,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13">
         <v>32</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C41" s="13">
         <v>0</v>
@@ -1241,7 +1238,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C42" s="13">
         <v>0</v>
